--- a/web_project_Olympia.xlsx
+++ b/web_project_Olympia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonih\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE70FCC-9D33-4F71-B34E-0BB8FC5C6D52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{63809FAF-74AA-48D6-9AC9-6739DF2B527D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ListOfFeatures" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="39">
   <si>
     <t>User Stories / List of features</t>
   </si>
@@ -124,6 +124,27 @@
   </si>
   <si>
     <t>Database for "Enroll to our 30 days free campaign!"</t>
+  </si>
+  <si>
+    <t>Task : Enroll to our 30 days free campaign! - db</t>
+  </si>
+  <si>
+    <t>Mohan</t>
+  </si>
+  <si>
+    <t>Task : Contact Personal trainers online. -db</t>
+  </si>
+  <si>
+    <t>Joni</t>
+  </si>
+  <si>
+    <t>Task : New payment methods  - db</t>
+  </si>
+  <si>
+    <t>Edgar</t>
+  </si>
+  <si>
+    <t>All</t>
   </si>
 </sst>
 </file>
@@ -1428,8 +1449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2582,7 +2603,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2655,13 +2678,13 @@
     </row>
     <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="B4" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>9</v>
@@ -2679,13 +2702,17 @@
     </row>
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="B5" s="9">
-        <v>2</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
+        <v>3</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
@@ -2699,13 +2726,17 @@
     </row>
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="B6" s="9">
-        <v>4</v>
-      </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
+        <v>3</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -2719,13 +2750,15 @@
     </row>
     <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="9">
-        <v>2</v>
-      </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
+        <v>28</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
